--- a/User/Protocol/端口及协议自定义配置V1.8.xlsx
+++ b/User/Protocol/端口及协议自定义配置V1.8.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="128">
   <si>
     <t>modbus cJSON</t>
   </si>
@@ -249,6 +249,13 @@
     <t>端口,从1开始</t>
   </si>
   <si>
+    <t>en(e)</t>
+  </si>
+  <si>
+    <t>0：无效
+1：使能</t>
+  </si>
+  <si>
     <t>baud(b)</t>
   </si>
   <si>
@@ -357,13 +364,6 @@
   </si>
   <si>
     <t>DI[0]</t>
-  </si>
-  <si>
-    <t>en(e)</t>
-  </si>
-  <si>
-    <t>0：无效
-1：使能</t>
   </si>
   <si>
     <t>signal(s)</t>
@@ -1895,10 +1895,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -2060,19 +2060,17 @@
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" ht="27" spans="1:17">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="18"/>
@@ -2132,7 +2130,7 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" ht="54" spans="1:17">
+    <row r="10" spans="1:17">
       <c r="A10" s="2"/>
       <c r="B10" s="13"/>
       <c r="C10" s="22"/>
@@ -2144,7 +2142,7 @@
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="18"/>
@@ -2156,19 +2154,19 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" ht="54" spans="1:17">
       <c r="A11" s="2"/>
       <c r="B11" s="13"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="18"/>
@@ -2184,15 +2182,17 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -2206,13 +2206,13 @@
       <c r="A13" s="2"/>
       <c r="B13" s="13"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="11"/>
+      <c r="D13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="4"/>
       <c r="J13" s="18"/>
@@ -2224,21 +2224,19 @@
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
     </row>
-    <row r="14" ht="121.5" spans="1:17">
+    <row r="14" spans="1:17">
       <c r="A14" s="2"/>
       <c r="B14" s="13"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11"/>
       <c r="G14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>31</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H14" s="4"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -2248,7 +2246,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" ht="54" spans="1:17">
+    <row r="15" ht="121.5" spans="1:17">
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
       <c r="C15" s="22"/>
@@ -2260,18 +2258,19 @@
       <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" ht="54" spans="1:17">
       <c r="A16" s="2"/>
       <c r="B16" s="13"/>
       <c r="C16" s="22"/>
@@ -2283,7 +2282,7 @@
       <c r="G16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K16" s="20"/>
@@ -2319,17 +2318,19 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
       <c r="G18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
@@ -2340,17 +2341,17 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="B19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H19" s="3"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
@@ -2362,18 +2363,16 @@
     <row r="20" spans="1:17">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="11"/>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H20" s="4"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
@@ -2386,16 +2385,16 @@
       <c r="A21" s="2"/>
       <c r="B21" s="8"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -2405,112 +2404,124 @@
       <c r="P21" s="20"/>
       <c r="Q21" s="20"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" ht="27" spans="1:17">
       <c r="A22" s="2"/>
       <c r="B22" s="8"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="D22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" ht="121.5" spans="1:17">
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="10" t="s">
+      <c r="D25" s="21" t="s">
         <v>30</v>
       </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" ht="54" spans="1:17">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="2"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="E26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>11</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" ht="121.5" spans="1:17">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="2"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="H27" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" ht="54" spans="1:17">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="2"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="26" t="s">
-        <v>41</v>
+      <c r="F28" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="26" t="s">
-        <v>42</v>
+      <c r="H28" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2519,353 +2530,385 @@
       <c r="C29" s="2"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
-      <c r="F29" s="26" t="s">
-        <v>43</v>
+      <c r="F29" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" ht="54" spans="1:17">
+      <c r="H29" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="10" t="s">
-        <v>45</v>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
+      <c r="H30" s="26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2"/>
-      <c r="B31" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="G31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-    </row>
-    <row r="32" spans="1:17">
+        <v>16</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" ht="54" spans="1:17">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="4"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="30"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="29"/>
-      <c r="J33" s="31"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="30"/>
     </row>
-    <row r="34" ht="27" spans="1:11">
+    <row r="34" spans="1:11">
       <c r="A34" s="2"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="9" t="s">
+      <c r="C34" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" ht="94.5" spans="1:11">
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="H35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" ht="27" spans="1:11">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" ht="94.5" spans="1:11">
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="D37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:11">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="10" t="s">
-        <v>57</v>
+      <c r="D38" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="E38" s="11"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>58</v>
+      <c r="F38" s="12"/>
+      <c r="G38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2"/>
-      <c r="B39" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="B39" s="8"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="3"/>
+      <c r="D39" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="4"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
       <c r="G41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" ht="27" spans="1:11">
+        <v>13</v>
+      </c>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" ht="81" spans="1:11">
+      <c r="C42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
+      <c r="D43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>62</v>
+      <c r="H43" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="27" spans="1:11">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-    </row>
-    <row r="45" spans="1:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" ht="81" spans="1:11">
       <c r="A45" s="2"/>
-      <c r="B45" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="B45" s="8"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="D45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-    </row>
-    <row r="46" spans="1:11">
+        <v>16</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" ht="27" spans="1:11">
       <c r="A46" s="2"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="11"/>
       <c r="F46" s="12"/>
       <c r="G46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="2"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
       <c r="G47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H47" s="3"/>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" ht="27" spans="1:11">
+    <row r="48" spans="1:11">
       <c r="A48" s="2"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="C48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="4"/>
       <c r="I48" s="30"/>
       <c r="J48" s="30"/>
     </row>
-    <row r="49" ht="27" spans="1:8">
+    <row r="49" spans="1:10">
       <c r="A49" s="2"/>
       <c r="B49" s="8"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
+      <c r="D49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
       <c r="G49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" ht="27" spans="1:8">
+      <c r="H49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+    </row>
+    <row r="50" ht="27" spans="1:10">
       <c r="A50" s="2"/>
       <c r="B50" s="8"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+    </row>
+    <row r="51" ht="27" spans="1:10">
+      <c r="A51" s="2"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" ht="27" spans="1:10">
+      <c r="A52" s="2"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="9" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2876,50 +2919,50 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="D42:F42"/>
     <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="D48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="A3:A50"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C5:C17"/>
-    <mergeCell ref="C19:C30"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="J1:Q14"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A3:A52"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="B19:B32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="C5:C18"/>
+    <mergeCell ref="C20:C32"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="J1:Q15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2931,7 +2974,7 @@
   <sheetPr/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A20" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -3026,7 +3069,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="121.5" spans="1:10">
@@ -3847,8 +3890,8 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3942,7 +3985,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="121.5" spans="1:10">

--- a/User/Protocol/端口及协议自定义配置V1.8.xlsx
+++ b/User/Protocol/端口及协议自定义配置V1.8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="20752" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="port config" sheetId="5" r:id="rId1"/>
@@ -37,167 +37,108 @@
     <t>{
     "modbus": [
         {
-            "port": 1,
-            "baud": 9600,
-            "date_bit": 8,
-            "stop_bit": 1,
-            "parity": 0,
-            "device_num": 3,
-            "device_attr": [
+            "p": 1,
+            "e": 1,
+            "n": 9600,
+            "db": 8,
+            "sb": 1,
+            "pa": 0,
+            "dn": 1,
+            "da": [
                 {
-                    "device_type": 1,
-                    "device_no": 1,
-                    "device_addr": 1
-                },
-                {
-                    "device_type": 1,
-                    "device_no": 2,
-                    "device_addr": 1
-                },
-                {
-                    "device_type": 1,
-                    "device_no": 3,
-                    "device_addr": 1
+                    "dt": 1,
+                    "p": 0,
+                    "dn": 1,
+                    "da": 1
                 }
             ]
         },
         {
-            "port": 2,
-            "baud": 9600,
-            "date_bit": 8,
-            "stop_bit": 1,
-            "parity": 0,
-            "device_num": 3,
-            "device_attr": [
+            "p": 2,
+            "e": 1,
+            "n": 9600,
+            "db": 8,
+            "sb": 1,
+            "pa": 0,
+            "dn": 1,
+            "da": [
                 {
-                    "device_type": 2,
-                    "device_no": 1,
-                    "device_addr": 1
-                },
-                {
-                    "device_type": 2,
-                    "device_no": 2,
-                    "device_addr": 1
-                },
-                {
-                    "device_type": 2,
-                    "device_no": 3,
-                    "device_addr": 1
+                    "dt": 1,
+                    "p": 0,
+                    "dn": 1,
+                    "da": 1
                 }
             ]
         },
         {
-            "port": 3,
-            "baud": 115200,
-            "date_bit": 8,
-            "stop_bit": 1,
-            "parity": 0,
-            "device_num": 3,
-            "device_attr": [
+            "p": 3,
+            "e": 1,
+            "n": 9600,
+            "db": 8,
+            "sb": 1,
+            "pa": 0,
+            "dn": 1,
+            "da": [
                 {
-                    "device_type": 3,
-                    "device_no": 1,
-                    "device_addr": 1
-                },
-                {
-                    "device_type": 3,
-                    "device_no": 2,
-                    "device_addr": 1
-                },
-                {
-                    "device_type": 3,
-                    "device_no": 3,
-                    "device_addr": 1
+                    "dt": 1,
+                    "p": 0,
+                    "dn": 1,
+                    "da": 1
                 }
             ]
         }
     ],
     "CAN": [
         {
-            "port": 1,
-            "baud": 500000,
-            "device_num": 3,
-            "device_attr": [
+            "p": 1,
+            "e": 1,
+            "b": 500000,
+            "dn": 1,
+            "da": [
                 {
-                    "device_type": 1,
-                    "device_no": 1,
-                    "master_addr": 1,
-                    "slave_addr": 1,
-                    "addr_format": 0
-                },
-                {
-                    "device_type": 2,
-                    "device_no": 2,
-                    "master_addr": 1,
-                    "slave_addr": 1,
-                    "addr_format": 0
-                },
-                {
-                    "device_type": 3,
-                    "device_no": 3,
-                    "master_addr": 1,
-                    "slave_addr": 1,
-                    "addr_format": 0
+                    "dt": 1,
+                    "p": 1,
+                    "dn": 1,
+                    "ma": 1,
+                    "sa": 1,
+                    "af": 0
                 }
             ]
         },
         {
-            "port": 2,
-            "baud": 500000,
-            "device_num": 3,
-            "device_attr": [
+            "p": 2,
+            "e": 1,
+            "b": 500000,
+            "dn": 1,
+            "da": [
                 {
-                    "device_type": 1,
-                    "device_no": 1,
-                    "master_addr": 1,
-                    "slave_addr": 1,
-                    "addr_format": 0
-                },
-                {
-                    "device_type": 2,
-                    "device_no": 2,
-                    "master_addr": 1,
-                    "slave_addr": 1,
-                    "addr_format": 0
-                },
-                {
-                    "device_type": 3,
-                    "device_no": 3,
-                    "master_addr": 1,
-                    "slave_addr": 1,
-                    "addr_format": 0
+                    "dt": 1,
+                    "p": 1,
+                    "dn": 1,
+                    "ma": 1,
+                    "sa": 1,
+                    "af": 0
                 }
             ]
         },
         {
-            "port": 3,
-            "baud": 500000,
-            "device_num": 3,
-            "device_attr": [
+            "p": 3,
+            "e": 1,
+            "b": 500000,
+            "dn": 1,
+            "da": [
                 {
-                    "device_type": 1,
-                    "device_no": 1,
-                    "master_addr": 1,
-                    "slave_addr": 1,
-                    "addr_format": 0
-                },
-                {
-                    "device_type": 2,
-                    "device_no": 2,
-                    "master_addr": 1,
-                    "slave_addr": 1,
-                    "addr_format": 0
-                },
-                {
-                    "device_type": 3,
-                    "device_no": 3,
-                    "master_addr": 1,
-                    "slave_addr": 1,
-                    "addr_format": 0
+                    "dt": 1,
+                    "p": 1,
+                    "dn": 1,
+                    "ma": 1,
+                    "sa": 1,
+                    "af": 0
                 }
             ]
         }
-    ]
+    ],
+    "DI": {}
 }</t>
   </si>
   <si>
@@ -1897,8 +1838,8 @@
   <sheetPr/>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -2974,8 +2915,8 @@
   <sheetPr/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
